--- a/compilado/excel/template_productocompleto.xlsx
+++ b/compilado/excel/template_productocompleto.xlsx
@@ -10,39 +10,18 @@
     <sheet name="datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datos!$A$5:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datos!$A$5:$N$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>identificador</t>
-  </si>
-  <si>
-    <t>NSN Producto</t>
-  </si>
-  <si>
-    <t>Nombre Producto</t>
-  </si>
-  <si>
-    <t>Descripcion del Producto</t>
-  </si>
-  <si>
-    <t>Total Solicitado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Despachos realizados SSNV</t>
   </si>
   <si>
-    <t>Saldo Inicio</t>
-  </si>
-  <si>
-    <t>En Stock</t>
-  </si>
-  <si>
     <t>Stock Futuro al dia de hoy</t>
   </si>
   <si>
@@ -58,7 +37,31 @@
     <t>Valor unitario en USD</t>
   </si>
   <si>
-    <t>Reporte Final de Stock  de Inventario Año 2017</t>
+    <t>Reporte Anual de Movimientos en Bodega</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Repuesto</t>
+  </si>
+  <si>
+    <t>NSN</t>
+  </si>
+  <si>
+    <t>Total anual Solicitado</t>
+  </si>
+  <si>
+    <t>Total solicitudes repuestos</t>
+  </si>
+  <si>
+    <t>En Stock 01-01</t>
+  </si>
+  <si>
+    <t>Stock al dia de hoy</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,11 +601,19 @@
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" style="7" customWidth="1"/>
-    <col min="5" max="13" width="12.5703125" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="22.28515625" style="2"/>
+    <col min="5" max="5" width="15.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="22.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -616,10 +627,11 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -632,9 +644,10 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -648,8 +661,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -663,56 +677,60 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M5">
+  <autoFilter ref="A5:N5">
     <sortState ref="A4:M5">
       <sortCondition ref="A3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
